--- a/docs/Scrum sheet.xlsx
+++ b/docs/Scrum sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyli/Desktop/Design Doc &amp; Scrum Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6562AF-AAFE-894C-A439-F83E75F7B9CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA37A5C-5FF3-D54D-9924-A325B4137BDC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1780" windowWidth="22940" windowHeight="9920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Acceptance Criteria:
 1. I can select the register button
@@ -53,7 +53,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Acceptance criteria:
 1. I can modify all of my profile info such as name, location, etc.</t>
@@ -67,7 +67,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Acceptance criteria:
 1. I can upload an image from my phone gallery
@@ -98,7 +98,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Acceptance criteria:
 </t>
@@ -108,7 +108,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1. I can select the follow button on someone's account
 </t>
@@ -118,7 +118,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2. I can view their posts in my feed</t>
         </r>
@@ -131,7 +131,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Acceptance criteria:
 </t>
@@ -141,7 +141,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1. I can select the like button on someone's post</t>
         </r>
@@ -154,7 +154,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Acceptance criteria:
 1. I can comment on a post
@@ -169,7 +169,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Acceptance criteria:
 1. I can search user's name to visit their profole
@@ -184,7 +184,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Acceptance criteria:
 1. I can add filters to my posts
@@ -199,7 +199,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Acceptance criteria:
 1. I can view recommended posts based on my most frequent tags
@@ -1634,7 +1634,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>different pages design,including log in, profile, camera</t>
         </r>
@@ -1647,7 +1647,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>different pages functions,including log in,log out,register, post processing</t>
         </r>
@@ -1660,7 +1660,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>some tasks about posting, including new post page, new feed page,search post page</t>
         </r>
@@ -1673,7 +1673,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>things about database, store things in database and read things in database</t>
         </r>
@@ -1686,7 +1686,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>edit new feed,including like and comment.
 Fix some bugs
@@ -1905,9 +1905,6 @@
     <t>database design</t>
   </si>
   <si>
-    <t>learn firework</t>
-  </si>
-  <si>
     <t>Sprint2:different pages functions</t>
   </si>
   <si>
@@ -2093,12 +2090,15 @@
   <si>
     <t>Sprint3: Posting</t>
   </si>
+  <si>
+    <t>learn firebase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2109,19 +2109,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2174,13 +2174,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2293,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2384,6 +2377,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,6 +2426,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Burndown Chart</a:t>
             </a:r>
           </a:p>
@@ -15343,9 +15338,9 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -15394,7 +15389,7 @@
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
@@ -15405,203 +15400,203 @@
         <v>67</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>68</v>
+      <c r="D5" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="32"/>
       <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -15674,13 +15669,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -15691,7 +15686,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -15699,10 +15694,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -15710,10 +15705,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -15721,10 +15716,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -15732,10 +15727,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -18750,22 +18745,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
